--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2710487.988724892</v>
+        <v>-2713127.414202362</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16334174.23636535</v>
+        <v>16334174.23636534</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>341.973970126076</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>284.3185410431204</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.6554290829572</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>118.691394575345</v>
+        <v>118.6913945753449</v>
       </c>
       <c r="T2" t="n">
         <v>205.7436268604466</v>
@@ -756,7 +756,7 @@
         <v>91.75197580253082</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174648</v>
+        <v>16.37427717174646</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>132.2883078804753</v>
+        <v>132.2883078804752</v>
       </c>
       <c r="T3" t="n">
         <v>191.6159968642974</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607538</v>
+        <v>97.34378597607535</v>
       </c>
       <c r="S4" t="n">
         <v>193.029256032545</v>
@@ -874,7 +874,7 @@
         <v>286.2220423705616</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.3965834693199</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.09092032742815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696317</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727822</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076942</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567079</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567866</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341707</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833878</v>
+        <v>99.97427419833926</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012117</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272876</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428145</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833762</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977279</v>
+        <v>83.06560892428202</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002299</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265267</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317882</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265264</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317882</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445512</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.7699066636956</v>
+        <v>401.7699066636974</v>
       </c>
       <c r="C2" t="n">
-        <v>401.7699066636956</v>
+        <v>401.7699066636974</v>
       </c>
       <c r="D2" t="n">
-        <v>401.7699066636956</v>
+        <v>401.7699066636974</v>
       </c>
       <c r="E2" t="n">
-        <v>401.7699066636956</v>
+        <v>401.7699066636974</v>
       </c>
       <c r="F2" t="n">
-        <v>401.7699066636957</v>
+        <v>401.7699066636976</v>
       </c>
       <c r="G2" t="n">
-        <v>56.34165401109352</v>
+        <v>401.7699066636976</v>
       </c>
       <c r="H2" t="n">
-        <v>56.34165401109352</v>
+        <v>114.5794611655958</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="J2" t="n">
         <v>210.1777629739681</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579183</v>
+        <v>491.4767306579188</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840307</v>
+        <v>877.3547360840316</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296444</v>
+        <v>1338.387805296445</v>
       </c>
       <c r="N2" t="n">
-        <v>1811.494679942781</v>
+        <v>1811.494679942782</v>
       </c>
       <c r="O2" t="n">
-        <v>2244.900824692378</v>
+        <v>2244.90082469238</v>
       </c>
       <c r="P2" t="n">
-        <v>2580.30194117166</v>
+        <v>2580.301941171662</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928705</v>
+        <v>2784.001464928707</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554676</v>
+        <v>2817.082700554678</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.192403003822</v>
+        <v>2697.192403003824</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.37055769024</v>
+        <v>2489.370557690242</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.806379578394</v>
+        <v>2235.806379578396</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234823</v>
+        <v>1904.743492234825</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.974836964709</v>
+        <v>1551.974836964711</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.509078703629</v>
+        <v>1178.509078703631</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3697467278173</v>
+        <v>788.3697467278191</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>72.88132792194855</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="J3" t="n">
-        <v>129.1475396695373</v>
+        <v>129.1475396695374</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7392193355938</v>
+        <v>331.7392193355941</v>
       </c>
       <c r="L3" t="n">
-        <v>650.4712751678844</v>
+        <v>650.4712751678849</v>
       </c>
       <c r="M3" t="n">
         <v>1041.773418876591</v>
       </c>
       <c r="N3" t="n">
-        <v>1457.840810889145</v>
+        <v>1457.840810889146</v>
       </c>
       <c r="O3" t="n">
-        <v>1816.241394019009</v>
+        <v>1816.24139401901</v>
       </c>
       <c r="P3" t="n">
         <v>2191.155572931812</v>
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="D4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="E4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="F4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="G4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="H4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="J4" t="n">
-        <v>88.37025097505887</v>
+        <v>88.37025097505901</v>
       </c>
       <c r="K4" t="n">
-        <v>270.839911296655</v>
+        <v>270.8399112966553</v>
       </c>
       <c r="L4" t="n">
-        <v>559.8646890059852</v>
+        <v>559.8646890059855</v>
       </c>
       <c r="M4" t="n">
-        <v>874.9899159308711</v>
+        <v>874.9899159308716</v>
       </c>
       <c r="N4" t="n">
         <v>1188.056785720851</v>
       </c>
       <c r="O4" t="n">
-        <v>1461.208415798623</v>
+        <v>1461.208415798624</v>
       </c>
       <c r="P4" t="n">
         <v>1671.41614150354</v>
       </c>
       <c r="Q4" t="n">
-        <v>1733.517994704577</v>
+        <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
         <v>1635.190938163087</v>
@@ -4519,19 +4519,19 @@
         <v>1217.637875978211</v>
       </c>
       <c r="U4" t="n">
-        <v>928.5247018665323</v>
+        <v>928.5247018665333</v>
       </c>
       <c r="V4" t="n">
-        <v>673.8402136606454</v>
+        <v>755.3968397763111</v>
       </c>
       <c r="W4" t="n">
-        <v>384.4230436236848</v>
+        <v>465.9796697393506</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4334927256675</v>
+        <v>237.9901188413332</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.34165401109352</v>
+        <v>237.9901188413332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4702,25 +4702,25 @@
         <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670224</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468668</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125553</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.715926185141</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.715926185141</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868966</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,25 +5042,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998292</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,7 +5224,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
         <v>1977.461080510509</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998287</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6130,16 +6130,16 @@
         <v>656.964603115003</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,7 +6169,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547834</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580118</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,7 +6549,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6664,7 +6664,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,22 +7570,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6759394351639</v>
+        <v>107.675939435162</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>69.36481017519617</v>
+        <v>411.3387803012722</v>
       </c>
       <c r="H2" t="n">
-        <v>298.8789252992939</v>
+        <v>14.56038425617356</v>
       </c>
       <c r="I2" t="n">
-        <v>57.65542908295726</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.74105985450808</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.4937330246666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823039</v>
+        <v>46.45968844822991</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393091</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459362</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667964</v>
+        <v>63.36835372228715</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1186172.826266606</v>
+        <v>1186172.826266607</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992241</v>
+        <v>135540.2139992236</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.1965259819</v>
+        <v>184268.196525982</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488842</v>
+        <v>32719.39465488818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17652.50451063904</v>
+        <v>17652.50451063901</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26433,22 +26433,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488705</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488706</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488698</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.806029906</v>
+        <v>97942.80602990603</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1301768.136807151</v>
+        <v>-1302232.433599176</v>
       </c>
       <c r="C6" t="n">
-        <v>-333828.2215837621</v>
+        <v>-333828.2215837616</v>
       </c>
       <c r="D6" t="n">
         <v>-198288.0075845381</v>
       </c>
       <c r="E6" t="n">
-        <v>-437702.0238830558</v>
+        <v>-437736.7618084918</v>
       </c>
       <c r="F6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="G6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="H6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="I6" t="n">
         <v>-141749.7253624342</v>
       </c>
       <c r="J6" t="n">
-        <v>-306590.2038947843</v>
+        <v>-306590.2038947844</v>
       </c>
       <c r="K6" t="n">
-        <v>-155041.4020236908</v>
+        <v>-155041.4020236906</v>
       </c>
       <c r="L6" t="n">
         <v>-122322.0073688024</v>
       </c>
       <c r="M6" t="n">
-        <v>-207377.0353043142</v>
+        <v>-207377.0353043143</v>
       </c>
       <c r="N6" t="n">
-        <v>-141749.7253624342</v>
+        <v>-141749.7253624341</v>
       </c>
       <c r="O6" t="n">
         <v>-122322.0073688024</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483911</v>
+        <v>986.0343569483914</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386689</v>
+        <v>704.2706751386694</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483911</v>
+        <v>986.0343569483914</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449072</v>
+        <v>103.7423436449069</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386689</v>
+        <v>704.2706751386694</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636239</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386688</v>
+        <v>704.2706751386693</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636242</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386689</v>
+        <v>704.2706751386694</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636239</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.06405385105126</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.076236749291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>67.91322356906866</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306772636</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492488</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356201</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862876</v>
+        <v>3.963957213862877</v>
       </c>
       <c r="H2" t="n">
-        <v>40.59587681647319</v>
+        <v>40.5958768164732</v>
       </c>
       <c r="I2" t="n">
         <v>152.8204604874487</v>
       </c>
       <c r="J2" t="n">
-        <v>336.4359135800946</v>
+        <v>336.4359135800947</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429102</v>
+        <v>504.2302224429104</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266663</v>
+        <v>625.5421780266665</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287002</v>
+        <v>696.0362021287004</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625881</v>
+        <v>707.2987955625883</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172392</v>
+        <v>667.8821960172394</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999993</v>
+        <v>570.0220022999995</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785349</v>
+        <v>428.0627845785351</v>
       </c>
       <c r="R2" t="n">
-        <v>249.0009273353141</v>
+        <v>249.0009273353142</v>
       </c>
       <c r="S2" t="n">
-        <v>90.32867501090037</v>
+        <v>90.3286750109004</v>
       </c>
       <c r="T2" t="n">
         <v>17.35222270368475</v>
       </c>
       <c r="U2" t="n">
-        <v>0.31711657710903</v>
+        <v>0.3171165771090301</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.120904088530501</v>
+        <v>2.120904088530502</v>
       </c>
       <c r="H3" t="n">
         <v>20.48346843396564</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966859</v>
+        <v>73.02235567966862</v>
       </c>
       <c r="J3" t="n">
-        <v>200.3789253115594</v>
+        <v>200.3789253115595</v>
       </c>
       <c r="K3" t="n">
-        <v>342.479499243103</v>
+        <v>342.4794992431031</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276425</v>
+        <v>460.5059513276427</v>
       </c>
       <c r="M3" t="n">
-        <v>537.388724536873</v>
+        <v>537.3887245368733</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253079</v>
+        <v>551.6118050253082</v>
       </c>
       <c r="O3" t="n">
-        <v>504.617035484711</v>
+        <v>504.6170354847112</v>
       </c>
       <c r="P3" t="n">
-        <v>404.9996588001798</v>
+        <v>404.9996588001799</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587356</v>
+        <v>270.7315464587357</v>
       </c>
       <c r="R3" t="n">
         <v>131.6820977071833</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336258</v>
+        <v>39.39486322336259</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524256</v>
+        <v>8.548731830524259</v>
       </c>
       <c r="U3" t="n">
-        <v>0.139533163719112</v>
+        <v>0.1395331637191121</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.778094742038082</v>
+        <v>1.778094742038083</v>
       </c>
       <c r="H4" t="n">
-        <v>15.80887870648405</v>
+        <v>15.80887870648406</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238161</v>
+        <v>53.47215824238163</v>
       </c>
       <c r="J4" t="n">
         <v>125.7112982620924</v>
       </c>
       <c r="K4" t="n">
-        <v>206.5822800295153</v>
+        <v>206.5822800295154</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3541946480981</v>
+        <v>264.3541946480983</v>
       </c>
       <c r="M4" t="n">
-        <v>278.7244330632968</v>
+        <v>278.7244330632969</v>
       </c>
       <c r="N4" t="n">
-        <v>272.0969890247914</v>
+        <v>272.0969890247915</v>
       </c>
       <c r="O4" t="n">
-        <v>251.3256095382555</v>
+        <v>251.3256095382556</v>
       </c>
       <c r="P4" t="n">
-        <v>215.0524768006785</v>
+        <v>215.0524768006786</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.891187899207</v>
+        <v>148.8911878992071</v>
       </c>
       <c r="R4" t="n">
-        <v>79.9496054010941</v>
+        <v>79.94960540109413</v>
       </c>
       <c r="S4" t="n">
-        <v>30.98734200442729</v>
+        <v>30.9873420044273</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799076</v>
+        <v>7.597313897799078</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935004</v>
+        <v>0.09698698592935008</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3900090534083</v>
+        <v>155.3900090534084</v>
       </c>
       <c r="K2" t="n">
-        <v>284.1403713979296</v>
+        <v>284.1403713979298</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566791</v>
+        <v>389.7757630566793</v>
       </c>
       <c r="M2" t="n">
-        <v>465.6899689014275</v>
+        <v>465.6899689014277</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659972</v>
+        <v>477.8857319659974</v>
       </c>
       <c r="O2" t="n">
-        <v>437.7839845955524</v>
+        <v>437.7839845955526</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447297</v>
+        <v>338.7890065447299</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040854</v>
+        <v>205.7570947040856</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118196</v>
+        <v>33.41538952118205</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.54129864489269</v>
+        <v>73.54129864489278</v>
       </c>
       <c r="K3" t="n">
-        <v>204.638060268744</v>
+        <v>204.6380602687441</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477683</v>
+        <v>321.9515715477685</v>
       </c>
       <c r="M3" t="n">
-        <v>395.2546906148547</v>
+        <v>395.254690614855</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419747</v>
+        <v>420.2700929419749</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402666</v>
+        <v>362.0207910402668</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7011908210134</v>
+        <v>378.7011908210117</v>
       </c>
       <c r="Q3" t="n">
-        <v>340.8270601085632</v>
+        <v>340.8270601085633</v>
       </c>
       <c r="R3" t="n">
-        <v>31.52426355454016</v>
+        <v>31.52426355454021</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541962</v>
+        <v>32.35211814541967</v>
       </c>
       <c r="K4" t="n">
         <v>184.3127882036325</v>
       </c>
       <c r="L4" t="n">
-        <v>291.9442199084143</v>
+        <v>291.9442199084144</v>
       </c>
       <c r="M4" t="n">
-        <v>318.3083100251374</v>
+        <v>318.3083100251375</v>
       </c>
       <c r="N4" t="n">
-        <v>316.22916140402</v>
+        <v>316.2291614040201</v>
       </c>
       <c r="O4" t="n">
-        <v>275.9107374522952</v>
+        <v>275.9107374522953</v>
       </c>
       <c r="P4" t="n">
-        <v>212.331036065572</v>
+        <v>212.3310360655721</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72914464751265</v>
+        <v>62.72914464751271</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36996,16 +36996,16 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
